--- a/controllers/task_report.xlsx
+++ b/controllers/task_report.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,18 +415,18 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1, 2</v>
+        <v>admin</v>
       </c>
       <c r="B2" t="str">
         <v>В работе</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>1</v>
+        <v>admin</v>
       </c>
       <c r="B3" t="str">
         <v>Новая</v>
@@ -435,9 +435,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>admin</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Просрочено</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>user1</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Выполнено в срок</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>admin</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Выполнено в срок</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
   </ignoredErrors>
 </worksheet>
 </file>